--- a/webroot/エクセル原本/納品書.xlsx
+++ b/webroot/エクセル原本/納品書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20364"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20366"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CakePHPapp\webroot\エクセル原本\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47223ED9-E0DA-4AF5-8255-C1C92BE08188}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3538E317-8FC6-4F84-B965-D95ABC1FF3F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4000" xr2:uid="{91928D8F-F09B-4063-A20E-DBA3A651B376}"/>
   </bookViews>
@@ -235,10 +235,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="[$-411]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="178" formatCode="#,##0_ "/>
+    <numFmt numFmtId="176" formatCode="[$-411]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,6 +311,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -608,7 +616,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -621,164 +629,218 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1097,7 +1159,7 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1107,27 +1169,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" s="44" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="43" t="s">
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+    </row>
+    <row r="2" spans="1:9" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="G2" s="45">
+      <c r="B2" s="50"/>
+      <c r="G2" s="48">
         <f ca="1">TODAY()</f>
-        <v>44072</v>
-      </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
+        <v>44094</v>
+      </c>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
     </row>
     <row r="3" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
@@ -1135,35 +1197,35 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
     </row>
     <row r="4" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="G4" s="8" t="s">
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="G4" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
     </row>
     <row r="5" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="G5" s="8" t="s">
+      <c r="A5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="G5" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
     </row>
     <row r="6" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
@@ -1173,11 +1235,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
     </row>
     <row r="7" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
@@ -1186,37 +1248,37 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="9" t="s">
+      <c r="B8" s="63"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="64"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="69"/>
     </row>
     <row r="10" spans="1:9" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="1"/>
@@ -1225,163 +1287,163 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="56"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="70"/>
     </row>
     <row r="11" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="22" t="s">
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I11" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="33"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="36"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="18"/>
     </row>
     <row r="13" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="37"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="32"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="22"/>
     </row>
     <row r="14" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="15"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="25"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="26"/>
     </row>
     <row r="15" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="37"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="32"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="22"/>
     </row>
     <row r="16" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="15"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="25"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="26"/>
     </row>
     <row r="17" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="37"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="32"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="22"/>
     </row>
     <row r="18" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="37"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="32"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="22"/>
     </row>
     <row r="19" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="15"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="25"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="26"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28" t="s">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="39"/>
-      <c r="G20" s="40" t="s">
+      <c r="F20" s="54"/>
+      <c r="G20" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="54"/>
-      <c r="I20" s="29"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="28"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="16"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="41" t="s">
+      <c r="A21" s="55"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="51"/>
-      <c r="I21" s="32"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="30"/>
     </row>
     <row r="22" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="42" t="s">
+      <c r="A22" s="57"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="55"/>
-      <c r="I22" s="26"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="32"/>
     </row>
     <row r="23" spans="1:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2"/>
@@ -1392,27 +1454,27 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" s="44" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="43" t="s">
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+    </row>
+    <row r="25" spans="1:9" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="43"/>
-      <c r="G25" s="45">
+      <c r="B25" s="50"/>
+      <c r="G25" s="48">
         <f ca="1">TODAY()</f>
-        <v>44072</v>
-      </c>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
+        <v>44094</v>
+      </c>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
     </row>
     <row r="26" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3"/>
@@ -1420,35 +1482,35 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
     </row>
     <row r="27" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="G27" s="8" t="s">
+      <c r="A27" s="56"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="G27" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
     </row>
     <row r="28" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="G28" s="8" t="s">
+      <c r="A28" s="62"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="G28" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
     </row>
     <row r="29" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3" t="s">
@@ -1458,11 +1520,11 @@
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
     </row>
     <row r="30" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1"/>
@@ -1471,37 +1533,37 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="9" t="s">
+      <c r="B31" s="63"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
     </row>
     <row r="32" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="6"/>
+      <c r="A32" s="64"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="69"/>
     </row>
     <row r="33" spans="1:9" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A33" s="1"/>
@@ -1510,163 +1572,163 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="56"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="70"/>
     </row>
     <row r="34" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="22" t="s">
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F34" s="22" t="s">
+      <c r="F34" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G34" s="24" t="s">
+      <c r="G34" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H34" s="21" t="s">
+      <c r="H34" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I34" s="24" t="s">
+      <c r="I34" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="33"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="49"/>
+      <c r="A35" s="73"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="35"/>
       <c r="I35" s="36"/>
     </row>
     <row r="36" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="37"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="32"/>
+      <c r="A36" s="67"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="30"/>
     </row>
     <row r="37" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="15"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="25"/>
+      <c r="A37" s="71"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="42"/>
     </row>
     <row r="38" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="37"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="32"/>
+      <c r="A38" s="67"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="30"/>
     </row>
     <row r="39" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="15"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="25"/>
+      <c r="A39" s="71"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="42"/>
     </row>
     <row r="40" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="37"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="32"/>
+      <c r="A40" s="67"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="30"/>
     </row>
     <row r="41" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="37"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="32"/>
+      <c r="A41" s="67"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="30"/>
     </row>
     <row r="42" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="15"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="25"/>
+      <c r="A42" s="71"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="42"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="38" t="s">
+      <c r="A43" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="28" t="s">
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="F43" s="39"/>
-      <c r="G43" s="40" t="s">
+      <c r="F43" s="54"/>
+      <c r="G43" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H43" s="54"/>
-      <c r="I43" s="29"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="28"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="16"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="41" t="s">
+      <c r="A44" s="55"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H44" s="51"/>
-      <c r="I44" s="32"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="30"/>
     </row>
     <row r="45" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A45" s="17"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="42" t="s">
+      <c r="A45" s="57"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H45" s="55"/>
-      <c r="I45" s="26"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="54">
@@ -1698,17 +1760,6 @@
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A18:D18"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="A21:D22"/>
@@ -1718,12 +1769,23 @@
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:F9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/webroot/エクセル原本/納品書.xlsx
+++ b/webroot/エクセル原本/納品書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CakePHPapp\webroot\エクセル原本\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3538E317-8FC6-4F84-B965-D95ABC1FF3F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5FF341-6BDD-42B8-B903-6AE7F44A21CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4000" xr2:uid="{91928D8F-F09B-4063-A20E-DBA3A651B376}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
   <si>
     <t>品名（現場名）</t>
     <rPh sb="0" eb="2">
@@ -238,7 +238,7 @@
     <numFmt numFmtId="176" formatCode="[$-411]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,6 +319,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -328,7 +335,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -610,13 +617,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -746,100 +797,118 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1158,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36832780-D28D-4869-86A9-A3C5F85D10D5}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A23" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1169,63 +1238,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
     </row>
     <row r="2" spans="1:9" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="G2" s="48">
+      <c r="B2" s="71"/>
+      <c r="G2" s="72">
         <f ca="1">TODAY()</f>
-        <v>44094</v>
-      </c>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
+        <v>44096</v>
+      </c>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
     </row>
     <row r="3" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="G3" s="61" t="s">
+      <c r="G3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
     </row>
     <row r="4" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="56"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="G4" s="61" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="G4" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
     </row>
     <row r="5" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="62"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="G5" s="61" t="s">
+      <c r="A5" s="63"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="G5" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
     </row>
     <row r="6" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
@@ -1235,11 +1304,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="G6" s="61" t="s">
+      <c r="G6" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
     </row>
     <row r="7" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
@@ -1248,37 +1317,40 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="61" t="s">
+      <c r="G7" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="56" t="s">
+      <c r="B8" s="59"/>
+      <c r="C8" s="79">
+        <f>H22</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="79"/>
+      <c r="E8" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="56"/>
+      <c r="F8" s="50"/>
       <c r="G8" s="5"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="64"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
       <c r="G9" s="5"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="69"/>
+      <c r="I9" s="53"/>
     </row>
     <row r="10" spans="1:9" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="1"/>
@@ -1289,15 +1361,15 @@
       <c r="F10" s="1"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="70"/>
+      <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
       <c r="E11" s="7" t="s">
         <v>1</v>
       </c>
@@ -1315,10 +1387,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="46"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
@@ -1326,10 +1398,10 @@
       <c r="I12" s="18"/>
     </row>
     <row r="13" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="59"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
+      <c r="A13" s="75"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
       <c r="G13" s="20"/>
@@ -1337,10 +1409,10 @@
       <c r="I13" s="22"/>
     </row>
     <row r="14" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="51"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
+      <c r="A14" s="73"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
       <c r="G14" s="24"/>
@@ -1348,10 +1420,10 @@
       <c r="I14" s="26"/>
     </row>
     <row r="15" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="59"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
+      <c r="A15" s="75"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="20"/>
@@ -1359,10 +1431,10 @@
       <c r="I15" s="22"/>
     </row>
     <row r="16" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="51"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
       <c r="G16" s="24"/>
@@ -1370,10 +1442,10 @@
       <c r="I16" s="26"/>
     </row>
     <row r="17" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="59"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
+      <c r="A17" s="75"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="20"/>
@@ -1381,10 +1453,10 @@
       <c r="I17" s="22"/>
     </row>
     <row r="18" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="59"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
+      <c r="A18" s="75"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="20"/>
@@ -1392,10 +1464,10 @@
       <c r="I18" s="22"/>
     </row>
     <row r="19" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="51"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
+      <c r="A19" s="73"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
       <c r="G19" s="24"/>
@@ -1409,40 +1481,49 @@
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="53" t="s">
+      <c r="E20" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="54"/>
+      <c r="F20" s="48"/>
       <c r="G20" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="27"/>
+      <c r="H20" s="44">
+        <f>SUM(H12:H19)</f>
+        <v>0</v>
+      </c>
       <c r="I20" s="28"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="55"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="56"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="50"/>
       <c r="G21" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="29"/>
+      <c r="H21" s="45">
+        <f>H20*0.1</f>
+        <v>0</v>
+      </c>
       <c r="I21" s="30"/>
     </row>
     <row r="22" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A22" s="57"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="58"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="52"/>
       <c r="G22" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="31"/>
+      <c r="H22" s="46">
+        <f>H20*1.1</f>
+        <v>0</v>
+      </c>
       <c r="I22" s="32"/>
     </row>
     <row r="23" spans="1:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1454,63 +1535,73 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
     </row>
     <row r="25" spans="1:9" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="50"/>
-      <c r="G25" s="48">
-        <f ca="1">TODAY()</f>
-        <v>44094</v>
-      </c>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
+      <c r="A25" s="71" t="str">
+        <f>A2</f>
+        <v>〒</v>
+      </c>
+      <c r="B25" s="71"/>
+      <c r="G25" s="72">
+        <f ca="1">G2</f>
+        <v>44096</v>
+      </c>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
     </row>
     <row r="26" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="3"/>
+      <c r="A26" s="43">
+        <f>A3</f>
+        <v>0</v>
+      </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="G26" s="61" t="s">
+      <c r="G26" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
     </row>
     <row r="27" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="56"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="G27" s="61" t="s">
+      <c r="A27" s="50">
+        <f>A4</f>
+        <v>0</v>
+      </c>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50">
+        <f>E4</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
     </row>
     <row r="28" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="62"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="G28" s="61" t="s">
+      <c r="A28" s="63"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="G28" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
     </row>
     <row r="29" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3" t="s">
@@ -1520,11 +1611,11 @@
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="G29" s="61" t="s">
+      <c r="G29" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
     </row>
     <row r="30" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1"/>
@@ -1533,37 +1624,40 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="61" t="s">
+      <c r="G30" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="63" t="s">
+      <c r="A31" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="63"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="56" t="s">
+      <c r="B31" s="59"/>
+      <c r="C31" s="61">
+        <f>H45</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="61"/>
+      <c r="E31" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="56"/>
+      <c r="F31" s="50"/>
       <c r="G31" s="5"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
     <row r="32" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="64"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
+      <c r="A32" s="60"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
       <c r="G32" s="5"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="69"/>
+      <c r="I32" s="53"/>
     </row>
     <row r="33" spans="1:9" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A33" s="1"/>
@@ -1574,15 +1668,15 @@
       <c r="F33" s="1"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="70"/>
+      <c r="I33" s="54"/>
     </row>
     <row r="34" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
       <c r="E34" s="7" t="s">
         <v>1</v>
       </c>
@@ -1600,10 +1694,10 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="73"/>
-      <c r="B35" s="74"/>
-      <c r="C35" s="74"/>
-      <c r="D35" s="74"/>
+      <c r="A35" s="66"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
       <c r="E35" s="33"/>
       <c r="F35" s="33"/>
       <c r="G35" s="34"/>
@@ -1611,10 +1705,10 @@
       <c r="I35" s="36"/>
     </row>
     <row r="36" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="67"/>
-      <c r="B36" s="68"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
+      <c r="A36" s="57"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
       <c r="E36" s="37"/>
       <c r="F36" s="37"/>
       <c r="G36" s="38"/>
@@ -1622,10 +1716,10 @@
       <c r="I36" s="30"/>
     </row>
     <row r="37" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="71"/>
-      <c r="B37" s="72"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
       <c r="E37" s="39"/>
       <c r="F37" s="39"/>
       <c r="G37" s="40"/>
@@ -1633,10 +1727,10 @@
       <c r="I37" s="42"/>
     </row>
     <row r="38" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="67"/>
-      <c r="B38" s="68"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="68"/>
+      <c r="A38" s="57"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
       <c r="E38" s="37"/>
       <c r="F38" s="37"/>
       <c r="G38" s="38"/>
@@ -1644,10 +1738,10 @@
       <c r="I38" s="30"/>
     </row>
     <row r="39" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="71"/>
-      <c r="B39" s="72"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
+      <c r="A39" s="55"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
       <c r="E39" s="39"/>
       <c r="F39" s="39"/>
       <c r="G39" s="40"/>
@@ -1655,10 +1749,10 @@
       <c r="I39" s="42"/>
     </row>
     <row r="40" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="67"/>
-      <c r="B40" s="68"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="68"/>
+      <c r="A40" s="57"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
       <c r="E40" s="37"/>
       <c r="F40" s="37"/>
       <c r="G40" s="38"/>
@@ -1666,10 +1760,10 @@
       <c r="I40" s="30"/>
     </row>
     <row r="41" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="67"/>
-      <c r="B41" s="68"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="68"/>
+      <c r="A41" s="57"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
       <c r="E41" s="37"/>
       <c r="F41" s="37"/>
       <c r="G41" s="38"/>
@@ -1677,10 +1771,10 @@
       <c r="I41" s="30"/>
     </row>
     <row r="42" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="71"/>
-      <c r="B42" s="72"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="72"/>
+      <c r="A42" s="55"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
       <c r="E42" s="39"/>
       <c r="F42" s="39"/>
       <c r="G42" s="40"/>
@@ -1694,44 +1788,91 @@
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
-      <c r="E43" s="53" t="s">
+      <c r="E43" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="F43" s="54"/>
+      <c r="F43" s="48"/>
       <c r="G43" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H43" s="27"/>
+      <c r="H43" s="27">
+        <f>SUM(H35:H42)</f>
+        <v>0</v>
+      </c>
       <c r="I43" s="28"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="55"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="56"/>
+      <c r="A44" s="49"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="50"/>
       <c r="G44" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H44" s="29"/>
+      <c r="H44" s="29">
+        <f>H43*0.1</f>
+        <v>0</v>
+      </c>
       <c r="I44" s="30"/>
     </row>
     <row r="45" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A45" s="57"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="58"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="52"/>
       <c r="G45" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H45" s="31"/>
+      <c r="H45" s="31">
+        <f>H43*1.1</f>
+        <v>0</v>
+      </c>
       <c r="I45" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:D22"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="A44:D45"/>
     <mergeCell ref="E44:F45"/>
@@ -1748,44 +1889,6 @@
     <mergeCell ref="E31:F32"/>
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:D22"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:F9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/webroot/エクセル原本/納品書.xlsx
+++ b/webroot/エクセル原本/納品書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CakePHPapp\webroot\エクセル原本\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5FF341-6BDD-42B8-B903-6AE7F44A21CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A16D92D-DE8F-4CBA-817E-9CF83F5E5D93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4000" xr2:uid="{91928D8F-F09B-4063-A20E-DBA3A651B376}"/>
   </bookViews>
@@ -809,6 +809,57 @@
     <xf numFmtId="177" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -818,15 +869,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -839,76 +899,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1227,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36832780-D28D-4869-86A9-A3C5F85D10D5}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A23" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1238,27 +1238,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
     </row>
     <row r="2" spans="1:9" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="G2" s="72">
+      <c r="B2" s="54"/>
+      <c r="G2" s="52">
         <f ca="1">TODAY()</f>
-        <v>44096</v>
-      </c>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
+        <v>44119</v>
+      </c>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
     </row>
     <row r="3" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="43"/>
@@ -1266,35 +1266,35 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="G3" s="68" t="s">
+      <c r="G3" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
     </row>
     <row r="4" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="G4" s="68" t="s">
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="G4" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
     </row>
     <row r="5" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="63"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="G5" s="68" t="s">
+      <c r="A5" s="57"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="G5" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
     </row>
     <row r="6" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
@@ -1304,11 +1304,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="G6" s="68" t="s">
+      <c r="G6" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
     </row>
     <row r="7" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
@@ -1317,40 +1317,37 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="68" t="s">
+      <c r="G7" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="79">
-        <f>H22</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="79"/>
-      <c r="E8" s="50" t="s">
+      <c r="B8" s="58"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="50"/>
+      <c r="F8" s="56"/>
       <c r="G8" s="5"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
       <c r="G9" s="5"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="53"/>
+      <c r="I9" s="73"/>
     </row>
     <row r="10" spans="1:9" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="1"/>
@@ -1361,15 +1358,15 @@
       <c r="F10" s="1"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="54"/>
+      <c r="I10" s="74"/>
     </row>
     <row r="11" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
       <c r="E11" s="7" t="s">
         <v>1</v>
       </c>
@@ -1387,10 +1384,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="77"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
@@ -1398,10 +1395,10 @@
       <c r="I12" s="18"/>
     </row>
     <row r="13" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="75"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
       <c r="G13" s="20"/>
@@ -1409,10 +1406,10 @@
       <c r="I13" s="22"/>
     </row>
     <row r="14" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="73"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
       <c r="G14" s="24"/>
@@ -1420,10 +1417,10 @@
       <c r="I14" s="26"/>
     </row>
     <row r="15" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="75"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
+      <c r="A15" s="69"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="20"/>
@@ -1431,10 +1428,10 @@
       <c r="I15" s="22"/>
     </row>
     <row r="16" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="73"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
       <c r="G16" s="24"/>
@@ -1442,10 +1439,10 @@
       <c r="I16" s="26"/>
     </row>
     <row r="17" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="75"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="20"/>
@@ -1453,10 +1450,10 @@
       <c r="I17" s="22"/>
     </row>
     <row r="18" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="75"/>
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="20"/>
@@ -1464,10 +1461,10 @@
       <c r="I18" s="22"/>
     </row>
     <row r="19" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="73"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
       <c r="G19" s="24"/>
@@ -1481,10 +1478,10 @@
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="47" t="s">
+      <c r="E20" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="48"/>
+      <c r="F20" s="65"/>
       <c r="G20" s="11" t="s">
         <v>8</v>
       </c>
@@ -1495,12 +1492,12 @@
       <c r="I20" s="28"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="49"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="50"/>
+      <c r="A21" s="66"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="56"/>
       <c r="G21" s="12" t="s">
         <v>9</v>
       </c>
@@ -1511,12 +1508,12 @@
       <c r="I21" s="30"/>
     </row>
     <row r="22" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A22" s="51"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="52"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="68"/>
       <c r="G22" s="13" t="s">
         <v>10</v>
       </c>
@@ -1535,28 +1532,28 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C24" s="69" t="s">
+      <c r="C24" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
     </row>
     <row r="25" spans="1:9" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="71" t="str">
+      <c r="A25" s="54" t="str">
         <f>A2</f>
         <v>〒</v>
       </c>
-      <c r="B25" s="71"/>
-      <c r="G25" s="72">
+      <c r="B25" s="54"/>
+      <c r="G25" s="52">
         <f ca="1">G2</f>
-        <v>44096</v>
-      </c>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
+        <v>44119</v>
+      </c>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
     </row>
     <row r="26" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="43">
@@ -1567,41 +1564,41 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="G26" s="68" t="s">
+      <c r="G26" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
     </row>
     <row r="27" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="50">
+      <c r="A27" s="56">
         <f>A4</f>
         <v>0</v>
       </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50">
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56">
         <f>E4</f>
         <v>0</v>
       </c>
-      <c r="G27" s="68" t="s">
+      <c r="G27" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
     </row>
     <row r="28" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="63"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="G28" s="68" t="s">
+      <c r="A28" s="57"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="G28" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
     </row>
     <row r="29" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3" t="s">
@@ -1611,11 +1608,11 @@
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="G29" s="68" t="s">
+      <c r="G29" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
     </row>
     <row r="30" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1"/>
@@ -1624,40 +1621,40 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="68" t="s">
+      <c r="G30" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="59" t="s">
+      <c r="A31" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="59"/>
-      <c r="C31" s="61">
-        <f>H45</f>
+      <c r="B31" s="58"/>
+      <c r="C31" s="77">
+        <f>C8</f>
         <v>0</v>
       </c>
-      <c r="D31" s="61"/>
-      <c r="E31" s="50" t="s">
+      <c r="D31" s="77"/>
+      <c r="E31" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="50"/>
+      <c r="F31" s="56"/>
       <c r="G31" s="5"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
     <row r="32" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="60"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
+      <c r="A32" s="59"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
       <c r="G32" s="5"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="53"/>
+      <c r="I32" s="73"/>
     </row>
     <row r="33" spans="1:9" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A33" s="1"/>
@@ -1668,15 +1665,15 @@
       <c r="F33" s="1"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="54"/>
+      <c r="I33" s="74"/>
     </row>
     <row r="34" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A34" s="64" t="s">
+      <c r="A34" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
       <c r="E34" s="7" t="s">
         <v>1</v>
       </c>
@@ -1694,10 +1691,10 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="66"/>
-      <c r="B35" s="67"/>
-      <c r="C35" s="67"/>
-      <c r="D35" s="67"/>
+      <c r="A35" s="79"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
       <c r="E35" s="33"/>
       <c r="F35" s="33"/>
       <c r="G35" s="34"/>
@@ -1705,10 +1702,10 @@
       <c r="I35" s="36"/>
     </row>
     <row r="36" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="57"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
+      <c r="A36" s="71"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
       <c r="E36" s="37"/>
       <c r="F36" s="37"/>
       <c r="G36" s="38"/>
@@ -1716,10 +1713,10 @@
       <c r="I36" s="30"/>
     </row>
     <row r="37" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="55"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
+      <c r="A37" s="75"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
       <c r="E37" s="39"/>
       <c r="F37" s="39"/>
       <c r="G37" s="40"/>
@@ -1727,10 +1724,10 @@
       <c r="I37" s="42"/>
     </row>
     <row r="38" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="57"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
+      <c r="A38" s="71"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
       <c r="E38" s="37"/>
       <c r="F38" s="37"/>
       <c r="G38" s="38"/>
@@ -1738,10 +1735,10 @@
       <c r="I38" s="30"/>
     </row>
     <row r="39" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="55"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
+      <c r="A39" s="75"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="76"/>
       <c r="E39" s="39"/>
       <c r="F39" s="39"/>
       <c r="G39" s="40"/>
@@ -1749,10 +1746,10 @@
       <c r="I39" s="42"/>
     </row>
     <row r="40" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="57"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="58"/>
+      <c r="A40" s="71"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="72"/>
       <c r="E40" s="37"/>
       <c r="F40" s="37"/>
       <c r="G40" s="38"/>
@@ -1760,10 +1757,10 @@
       <c r="I40" s="30"/>
     </row>
     <row r="41" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="57"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
+      <c r="A41" s="71"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="72"/>
       <c r="E41" s="37"/>
       <c r="F41" s="37"/>
       <c r="G41" s="38"/>
@@ -1771,10 +1768,10 @@
       <c r="I41" s="30"/>
     </row>
     <row r="42" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="55"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
+      <c r="A42" s="75"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
       <c r="E42" s="39"/>
       <c r="F42" s="39"/>
       <c r="G42" s="40"/>
@@ -1788,10 +1785,10 @@
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
-      <c r="E43" s="47" t="s">
+      <c r="E43" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="F43" s="48"/>
+      <c r="F43" s="65"/>
       <c r="G43" s="11" t="s">
         <v>8</v>
       </c>
@@ -1802,12 +1799,12 @@
       <c r="I43" s="28"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="49"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="50"/>
+      <c r="A44" s="66"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="56"/>
       <c r="G44" s="12" t="s">
         <v>9</v>
       </c>
@@ -1818,12 +1815,12 @@
       <c r="I44" s="30"/>
     </row>
     <row r="45" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A45" s="51"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="52"/>
+      <c r="A45" s="67"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="68"/>
       <c r="G45" s="13" t="s">
         <v>10</v>
       </c>
@@ -1835,6 +1832,44 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="A44:D45"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:F32"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:D22"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A12:D12"/>
@@ -1851,44 +1886,6 @@
     <mergeCell ref="A8:B9"/>
     <mergeCell ref="C8:D9"/>
     <mergeCell ref="E8:F9"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:D22"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="A44:D45"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:F32"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/webroot/エクセル原本/納品書.xlsx
+++ b/webroot/エクセル原本/納品書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20366"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CakePHPapp\webroot\エクセル原本\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A16D92D-DE8F-4CBA-817E-9CF83F5E5D93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46407F02-58FE-45C8-BD7C-3BF7964A3D46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4000" xr2:uid="{91928D8F-F09B-4063-A20E-DBA3A651B376}"/>
   </bookViews>
@@ -809,106 +809,106 @@
     <xf numFmtId="177" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1227,7 +1227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36832780-D28D-4869-86A9-A3C5F85D10D5}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -1238,27 +1238,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
     </row>
     <row r="2" spans="1:9" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="G2" s="52">
+      <c r="B2" s="71"/>
+      <c r="G2" s="72">
         <f ca="1">TODAY()</f>
-        <v>44119</v>
-      </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+        <v>44127</v>
+      </c>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
     </row>
     <row r="3" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="43"/>
@@ -1266,35 +1266,35 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
     </row>
     <row r="4" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="56"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="G4" s="55" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="G4" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
     </row>
     <row r="5" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="57"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="G5" s="55" t="s">
+      <c r="A5" s="63"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="G5" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
     </row>
     <row r="6" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
@@ -1304,11 +1304,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="G6" s="55" t="s">
+      <c r="G6" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
     </row>
     <row r="7" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
@@ -1317,37 +1317,37 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="55" t="s">
+      <c r="G7" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="56" t="s">
+      <c r="B8" s="59"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="56"/>
+      <c r="F8" s="50"/>
       <c r="G8" s="5"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="59"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
       <c r="G9" s="5"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="73"/>
+      <c r="I9" s="53"/>
     </row>
     <row r="10" spans="1:9" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="1"/>
@@ -1358,15 +1358,15 @@
       <c r="F10" s="1"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="74"/>
+      <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
       <c r="E11" s="7" t="s">
         <v>1</v>
       </c>
@@ -1384,10 +1384,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="50"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
@@ -1395,10 +1395,10 @@
       <c r="I12" s="18"/>
     </row>
     <row r="13" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="69"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
+      <c r="A13" s="75"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
       <c r="G13" s="20"/>
@@ -1406,10 +1406,10 @@
       <c r="I13" s="22"/>
     </row>
     <row r="14" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="62"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
+      <c r="A14" s="73"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
       <c r="G14" s="24"/>
@@ -1417,10 +1417,10 @@
       <c r="I14" s="26"/>
     </row>
     <row r="15" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="69"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
+      <c r="A15" s="75"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="20"/>
@@ -1428,10 +1428,10 @@
       <c r="I15" s="22"/>
     </row>
     <row r="16" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="62"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
       <c r="G16" s="24"/>
@@ -1439,10 +1439,10 @@
       <c r="I16" s="26"/>
     </row>
     <row r="17" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="69"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
+      <c r="A17" s="75"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="20"/>
@@ -1450,10 +1450,10 @@
       <c r="I17" s="22"/>
     </row>
     <row r="18" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="69"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
+      <c r="A18" s="75"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="20"/>
@@ -1461,10 +1461,10 @@
       <c r="I18" s="22"/>
     </row>
     <row r="19" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="62"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
+      <c r="A19" s="73"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
       <c r="G19" s="24"/>
@@ -1478,10 +1478,10 @@
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="64" t="s">
+      <c r="E20" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="65"/>
+      <c r="F20" s="48"/>
       <c r="G20" s="11" t="s">
         <v>8</v>
       </c>
@@ -1492,12 +1492,12 @@
       <c r="I20" s="28"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="66"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="56"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="50"/>
       <c r="G21" s="12" t="s">
         <v>9</v>
       </c>
@@ -1508,12 +1508,12 @@
       <c r="I21" s="30"/>
     </row>
     <row r="22" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A22" s="67"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="68"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="52"/>
       <c r="G22" s="13" t="s">
         <v>10</v>
       </c>
@@ -1523,7 +1523,7 @@
       </c>
       <c r="I22" s="32"/>
     </row>
-    <row r="23" spans="1:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1532,28 +1532,28 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C24" s="53" t="s">
+      <c r="C24" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
     </row>
     <row r="25" spans="1:9" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="54" t="str">
+      <c r="A25" s="71" t="str">
         <f>A2</f>
         <v>〒</v>
       </c>
-      <c r="B25" s="54"/>
-      <c r="G25" s="52">
+      <c r="B25" s="71"/>
+      <c r="G25" s="72">
         <f ca="1">G2</f>
-        <v>44119</v>
-      </c>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
+        <v>44127</v>
+      </c>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
     </row>
     <row r="26" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="43">
@@ -1564,41 +1564,41 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="G26" s="55" t="s">
+      <c r="G26" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
     </row>
     <row r="27" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="56">
+      <c r="A27" s="50">
         <f>A4</f>
         <v>0</v>
       </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56">
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50">
         <f>E4</f>
         <v>0</v>
       </c>
-      <c r="G27" s="55" t="s">
+      <c r="G27" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
     </row>
     <row r="28" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="57"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="G28" s="55" t="s">
+      <c r="A28" s="63"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="G28" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
     </row>
     <row r="29" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3" t="s">
@@ -1608,55 +1608,55 @@
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="G29" s="55" t="s">
+      <c r="G29" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-    </row>
-    <row r="30" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
+    </row>
+    <row r="30" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="55" t="s">
+      <c r="G30" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="58" t="s">
+      <c r="A31" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="58"/>
-      <c r="C31" s="77">
+      <c r="B31" s="59"/>
+      <c r="C31" s="61">
         <f>C8</f>
         <v>0</v>
       </c>
-      <c r="D31" s="77"/>
-      <c r="E31" s="56" t="s">
+      <c r="D31" s="61"/>
+      <c r="E31" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="56"/>
+      <c r="F31" s="50"/>
       <c r="G31" s="5"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
     <row r="32" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="59"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
+      <c r="A32" s="60"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
       <c r="G32" s="5"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="73"/>
-    </row>
-    <row r="33" spans="1:9" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="I32" s="53"/>
+    </row>
+    <row r="33" spans="1:9" ht="7" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1665,15 +1665,15 @@
       <c r="F33" s="1"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="74"/>
+      <c r="I33" s="54"/>
     </row>
     <row r="34" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A34" s="48" t="s">
+      <c r="A34" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
       <c r="E34" s="7" t="s">
         <v>1</v>
       </c>
@@ -1691,10 +1691,10 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="79"/>
-      <c r="B35" s="80"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="80"/>
+      <c r="A35" s="66"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
       <c r="E35" s="33"/>
       <c r="F35" s="33"/>
       <c r="G35" s="34"/>
@@ -1702,10 +1702,10 @@
       <c r="I35" s="36"/>
     </row>
     <row r="36" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="71"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
+      <c r="A36" s="57"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
       <c r="E36" s="37"/>
       <c r="F36" s="37"/>
       <c r="G36" s="38"/>
@@ -1713,10 +1713,10 @@
       <c r="I36" s="30"/>
     </row>
     <row r="37" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="75"/>
-      <c r="B37" s="76"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
       <c r="E37" s="39"/>
       <c r="F37" s="39"/>
       <c r="G37" s="40"/>
@@ -1724,10 +1724,10 @@
       <c r="I37" s="42"/>
     </row>
     <row r="38" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="71"/>
-      <c r="B38" s="72"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
+      <c r="A38" s="57"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
       <c r="E38" s="37"/>
       <c r="F38" s="37"/>
       <c r="G38" s="38"/>
@@ -1735,10 +1735,10 @@
       <c r="I38" s="30"/>
     </row>
     <row r="39" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="75"/>
-      <c r="B39" s="76"/>
-      <c r="C39" s="76"/>
-      <c r="D39" s="76"/>
+      <c r="A39" s="55"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
       <c r="E39" s="39"/>
       <c r="F39" s="39"/>
       <c r="G39" s="40"/>
@@ -1746,10 +1746,10 @@
       <c r="I39" s="42"/>
     </row>
     <row r="40" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="71"/>
-      <c r="B40" s="72"/>
-      <c r="C40" s="72"/>
-      <c r="D40" s="72"/>
+      <c r="A40" s="57"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
       <c r="E40" s="37"/>
       <c r="F40" s="37"/>
       <c r="G40" s="38"/>
@@ -1757,10 +1757,10 @@
       <c r="I40" s="30"/>
     </row>
     <row r="41" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="71"/>
-      <c r="B41" s="72"/>
-      <c r="C41" s="72"/>
-      <c r="D41" s="72"/>
+      <c r="A41" s="57"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
       <c r="E41" s="37"/>
       <c r="F41" s="37"/>
       <c r="G41" s="38"/>
@@ -1768,10 +1768,10 @@
       <c r="I41" s="30"/>
     </row>
     <row r="42" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="75"/>
-      <c r="B42" s="76"/>
-      <c r="C42" s="76"/>
-      <c r="D42" s="76"/>
+      <c r="A42" s="55"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
       <c r="E42" s="39"/>
       <c r="F42" s="39"/>
       <c r="G42" s="40"/>
@@ -1785,10 +1785,10 @@
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
-      <c r="E43" s="64" t="s">
+      <c r="E43" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="F43" s="65"/>
+      <c r="F43" s="48"/>
       <c r="G43" s="11" t="s">
         <v>8</v>
       </c>
@@ -1799,12 +1799,12 @@
       <c r="I43" s="28"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="66"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="56"/>
+      <c r="A44" s="49"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="50"/>
       <c r="G44" s="12" t="s">
         <v>9</v>
       </c>
@@ -1815,12 +1815,12 @@
       <c r="I44" s="30"/>
     </row>
     <row r="45" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A45" s="67"/>
-      <c r="B45" s="68"/>
-      <c r="C45" s="68"/>
-      <c r="D45" s="68"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="68"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="52"/>
       <c r="G45" s="13" t="s">
         <v>10</v>
       </c>
@@ -1832,6 +1832,44 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:D22"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="A44:D45"/>
     <mergeCell ref="E44:F45"/>
@@ -1848,44 +1886,6 @@
     <mergeCell ref="E31:F32"/>
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:D22"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:F9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/webroot/エクセル原本/納品書.xlsx
+++ b/webroot/エクセル原本/納品書.xlsx
@@ -1,6 +1,26 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CakePHPapp\webroot\エクセル原本\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F53F336-7737-45FF-88AD-F81961817DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-28965" yWindow="-870" windowWidth="15105" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="191029"/>
+</workbook>
+</file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
   <si>
     <t>〒640-8306</t>
   </si>
@@ -64,6 +84,17 @@
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEL(073)472-7500  FAX(073)472-7600</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録番号：T00000000000</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクバンゴウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -79,11 +110,24 @@
         <family val="1"/>
         <charset val="128"/>
       </rPr>
+      <t>8％</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">消費税 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
       <t>１０％</t>
     </r>
-  </si>
-  <si>
-    <t>TEL(073)472-7500  FAX(073)472-7600</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -95,7 +139,7 @@
     <numFmt numFmtId="176" formatCode="[$-411]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -164,6 +208,13 @@
       <family val="1"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -173,7 +224,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -182,19 +233,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -211,96 +249,7 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
@@ -354,45 +303,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -425,17 +341,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -706,18 +611,141 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="distributed"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -744,254 +772,227 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1293,4 +1294,686 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="5" width="8.625" style="1"/>
+    <col min="6" max="6" width="4.5" style="1" customWidth="1"/>
+    <col min="7" max="9" width="10.375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D1" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+    </row>
+    <row r="3" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="G3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="4"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="G4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="49"/>
+      <c r="G6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="G7" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="50"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="48"/>
+      <c r="G8" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="57"/>
+    </row>
+    <row r="10" spans="1:9" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="57"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="43"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="43"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="43"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="43"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="43"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="43"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="43"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="15"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="43"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="15"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="31"/>
+      <c r="G20" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="14">
+        <f>SUM(H12:H19)</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="15"/>
+    </row>
+    <row r="21" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="32"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="14"/>
+      <c r="I21" s="15"/>
+    </row>
+    <row r="22" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="32"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="34"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="19"/>
+      <c r="I23" s="20"/>
+    </row>
+    <row r="24" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+    </row>
+    <row r="25" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C25" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="40">
+        <f>H1</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="40"/>
+    </row>
+    <row r="26" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="46">
+        <f>A2</f>
+        <v>0</v>
+      </c>
+      <c r="B26" s="46"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="G26" s="45">
+        <f>G2</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+    </row>
+    <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="4">
+        <f>A3</f>
+        <v>0</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="G27" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="4">
+        <f>A4</f>
+        <v>0</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="7"/>
+      <c r="G28" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="48" t="str">
+        <f>E5</f>
+        <v>御中</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="49"/>
+      <c r="G30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="G31" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A32" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="50"/>
+      <c r="C32" s="52">
+        <f>C8</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="52"/>
+      <c r="E32" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="48"/>
+      <c r="G32" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+    </row>
+    <row r="33" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="51"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="57"/>
+    </row>
+    <row r="34" spans="1:9" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="58"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="70" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="63"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="77"/>
+      <c r="I36" s="71"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="55"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="78"/>
+      <c r="H37" s="78"/>
+      <c r="I37" s="72"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="59"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="79"/>
+      <c r="I38" s="73"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="55"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="78"/>
+      <c r="H39" s="78"/>
+      <c r="I39" s="72"/>
+    </row>
+    <row r="40" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="59"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="79"/>
+      <c r="H40" s="79"/>
+      <c r="I40" s="73"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="55"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="78"/>
+      <c r="H41" s="78"/>
+      <c r="I41" s="72"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="55"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="78"/>
+      <c r="H42" s="78"/>
+      <c r="I42" s="72"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="59"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="79"/>
+      <c r="H43" s="79"/>
+      <c r="I43" s="73"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A44" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="67"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="30"/>
+      <c r="G44" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="80">
+        <f>SUM(H36:H43)</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="74"/>
+    </row>
+    <row r="45" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="32"/>
+      <c r="B45" s="69"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" s="80"/>
+      <c r="I45" s="74"/>
+    </row>
+    <row r="46" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="32"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" s="80"/>
+      <c r="I46" s="74"/>
+    </row>
+    <row r="47" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="34"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" s="81">
+        <f>H44*1.1</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="75"/>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="46">
+    <mergeCell ref="A21:D23"/>
+    <mergeCell ref="E44:F47"/>
+    <mergeCell ref="A45:D47"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A32:B33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="E20:F23"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="C25:G25"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/webroot/エクセル原本/納品書.xlsx
+++ b/webroot/エクセル原本/納品書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CakePHPapp\webroot\エクセル原本\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C6CA3A-28F8-4999-A5E8-8EBFECAE269A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6C7A3D-2A6D-4C47-865E-12C3D2719515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-990" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14325" yWindow="-870" windowWidth="14400" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -326,15 +326,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -471,6 +462,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -533,25 +535,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -563,6 +562,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -572,120 +574,120 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -993,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScale="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
@@ -1006,21 +1008,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
@@ -1044,11 +1046,11 @@
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="55"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="49" t="s">
+      <c r="A5" s="63"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="53" t="s">
         <v>1</v>
       </c>
       <c r="G5" s="5" t="s">
@@ -1058,11 +1060,11 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="56"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="50"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="54"/>
       <c r="G6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1077,23 +1079,23 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="49" t="s">
+      <c r="B8" s="49"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="49"/>
+      <c r="F8" s="53"/>
       <c r="G8" s="16" t="s">
         <v>21</v>
       </c>
@@ -1101,14 +1103,14 @@
       <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="52"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="65"/>
+      <c r="I9" s="44"/>
     </row>
     <row r="10" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="10"/>
@@ -1119,15 +1121,15 @@
       <c r="F10" s="10"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="65"/>
+      <c r="I10" s="44"/>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
       <c r="E11" s="13" t="s">
         <v>9</v>
       </c>
@@ -1145,10 +1147,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="12"/>
@@ -1156,10 +1158,10 @@
       <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="12"/>
@@ -1167,10 +1169,10 @@
       <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
+      <c r="A14" s="67"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="12"/>
@@ -1178,10 +1180,10 @@
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="12"/>
@@ -1189,10 +1191,10 @@
       <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="12"/>
@@ -1200,10 +1202,10 @@
       <c r="I16" s="11"/>
     </row>
     <row r="17" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="12"/>
@@ -1211,10 +1213,10 @@
       <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
+      <c r="A18" s="67"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="12"/>
@@ -1222,10 +1224,10 @@
       <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="12"/>
@@ -1233,16 +1235,16 @@
       <c r="I19" s="11"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="18"/>
-      <c r="E20" s="37" t="s">
+      <c r="E20" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="38"/>
+      <c r="F20" s="69"/>
       <c r="G20" s="13" t="s">
         <v>15</v>
       </c>
@@ -1253,12 +1255,12 @@
       <c r="I20" s="11"/>
     </row>
     <row r="21" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="39"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="40"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="42"/>
       <c r="G21" s="14" t="s">
         <v>22</v>
       </c>
@@ -1266,12 +1268,12 @@
       <c r="I21" s="11"/>
     </row>
     <row r="22" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="39"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="40"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="42"/>
       <c r="G22" s="14" t="s">
         <v>23</v>
       </c>
@@ -1279,12 +1281,12 @@
       <c r="I22" s="11"/>
     </row>
     <row r="23" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="41"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="42"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="43"/>
       <c r="G23" s="13" t="s">
         <v>16</v>
       </c>
@@ -1292,26 +1294,26 @@
       <c r="I23" s="11"/>
     </row>
     <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
+      <c r="A24" s="70"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
     </row>
     <row r="25" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="61" t="s">
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
       <c r="H25" s="58">
         <f>H1</f>
         <v>0</v>
@@ -1319,19 +1321,19 @@
       <c r="I25" s="58"/>
     </row>
     <row r="26" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="47">
+      <c r="A26" s="59">
         <f>A2</f>
         <v>0</v>
       </c>
-      <c r="B26" s="47"/>
+      <c r="B26" s="59"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
-      <c r="G26" s="46">
+      <c r="G26" s="60">
         <f>G2</f>
         <v>0</v>
       </c>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4">
@@ -1363,11 +1365,11 @@
       <c r="I28" s="5"/>
     </row>
     <row r="29" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="55"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="49" t="str">
+      <c r="A29" s="63"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="53" t="str">
         <f>E5</f>
         <v>御中</v>
       </c>
@@ -1378,11 +1380,11 @@
       <c r="I29" s="5"/>
     </row>
     <row r="30" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="56"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="50"/>
+      <c r="A30" s="62"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="54"/>
       <c r="G30" s="5" t="s">
         <v>5</v>
       </c>
@@ -1397,26 +1399,26 @@
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
-      <c r="G31" s="48" t="s">
+      <c r="G31" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="51"/>
-      <c r="C32" s="53">
+      <c r="B32" s="49"/>
+      <c r="C32" s="51">
         <f>C8</f>
         <v>0</v>
       </c>
-      <c r="D32" s="53"/>
-      <c r="E32" s="49" t="s">
+      <c r="D32" s="51"/>
+      <c r="E32" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="F32" s="49"/>
+      <c r="F32" s="53"/>
       <c r="G32" s="16" t="s">
         <v>21</v>
       </c>
@@ -1424,14 +1426,14 @@
       <c r="I32" s="9"/>
     </row>
     <row r="33" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="52"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
+      <c r="A33" s="50"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
       <c r="H33" s="9"/>
-      <c r="I33" s="65"/>
+      <c r="I33" s="44"/>
     </row>
     <row r="34" spans="1:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="10"/>
@@ -1442,19 +1444,19 @@
       <c r="F34" s="10"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
-      <c r="I34" s="65"/>
+      <c r="I34" s="44"/>
     </row>
     <row r="35" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="68" t="s">
+      <c r="A35" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="69"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="28" t="s">
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="25" t="s">
+      <c r="F35" s="24" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="13" t="s">
@@ -1463,109 +1465,109 @@
       <c r="H35" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I35" s="21" t="s">
+      <c r="I35" s="20" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="66"/>
-      <c r="B36" s="67"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="23"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="22"/>
     </row>
     <row r="37" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="59"/>
-      <c r="B37" s="60"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="22"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="21"/>
     </row>
     <row r="38" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="66"/>
-      <c r="B38" s="67"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="23"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="22"/>
     </row>
     <row r="39" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="59"/>
-      <c r="B39" s="60"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="22"/>
+      <c r="A39" s="47"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="21"/>
     </row>
     <row r="40" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="66"/>
-      <c r="B40" s="67"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="23"/>
+      <c r="A40" s="45"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="22"/>
     </row>
     <row r="41" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="59"/>
-      <c r="B41" s="60"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="22"/>
+      <c r="A41" s="47"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="59"/>
-      <c r="B42" s="60"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="22"/>
+      <c r="A42" s="47"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="21"/>
     </row>
     <row r="43" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="66"/>
-      <c r="B43" s="67"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="23"/>
+      <c r="A43" s="45"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="22"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
       <c r="D44" s="18"/>
-      <c r="E44" s="37" t="s">
+      <c r="E44" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="F44" s="64"/>
+      <c r="F44" s="37"/>
       <c r="G44" s="13" t="s">
         <v>15</v>
       </c>
@@ -1573,41 +1575,41 @@
         <f>SUM(H36:H43)</f>
         <v>0</v>
       </c>
-      <c r="I44" s="24"/>
+      <c r="I44" s="23"/>
     </row>
     <row r="45" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="39"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="62"/>
+      <c r="A45" s="38"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="39"/>
       <c r="G45" s="14" t="s">
         <v>22</v>
       </c>
       <c r="H45" s="12"/>
-      <c r="I45" s="24"/>
+      <c r="I45" s="23"/>
     </row>
     <row r="46" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="39"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="62"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="39"/>
       <c r="G46" s="14" t="s">
         <v>23</v>
       </c>
       <c r="H46" s="12"/>
-      <c r="I46" s="24"/>
+      <c r="I46" s="23"/>
     </row>
     <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="41"/>
-      <c r="B47" s="63"/>
-      <c r="C47" s="63"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="63"/>
+      <c r="A47" s="40"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="41"/>
       <c r="G47" s="13" t="s">
         <v>16</v>
       </c>
@@ -1615,11 +1617,41 @@
         <f>H44*1.1</f>
         <v>0</v>
       </c>
-      <c r="I47" s="24"/>
+      <c r="I47" s="23"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="46">
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A21:D23"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="E20:F23"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A29:D29"/>
     <mergeCell ref="E44:F47"/>
     <mergeCell ref="A45:D47"/>
     <mergeCell ref="I33:I34"/>
@@ -1636,36 +1668,6 @@
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="H25:I25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="E20:F23"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A21:D23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
